--- a/DPWork_2.O_AutomationTesting/testdata/forgetPassword_testData.xlsx
+++ b/DPWork_2.O_AutomationTesting/testdata/forgetPassword_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DP_WORK_2.O\DPWork_2.O\DPWork_2.O_AutomationTesting\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D5177D-2EAA-4D4D-8B79-4CF015F8F712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B37909-0AEC-4178-8BAD-D6EE92594C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>FieldParameters</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>confirmPassword</t>
-  </si>
-  <si>
-    <t>Test@12345</t>
   </si>
 </sst>
 </file>
@@ -543,7 +540,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,22 +623,22 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -649,22 +646,22 @@
         <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/DPWork_2.O_AutomationTesting/testdata/forgetPassword_testData.xlsx
+++ b/DPWork_2.O_AutomationTesting/testdata/forgetPassword_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DP_WORK_2.O\DPWork_2.O\DPWork_2.O_AutomationTesting\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B37909-0AEC-4178-8BAD-D6EE92594C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82861E38-A352-4DB5-A6B9-9BBFABC613AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>FieldParameters</t>
   </si>
@@ -119,30 +119,6 @@
     <t>Forget password Simple Path2</t>
   </si>
   <si>
-    <t>FieldValues3</t>
-  </si>
-  <si>
-    <t>Forget password Simple Path4</t>
-  </si>
-  <si>
-    <t>Forget password Simple Path3</t>
-  </si>
-  <si>
-    <t>FieldValues4</t>
-  </si>
-  <si>
-    <t>FieldValues5</t>
-  </si>
-  <si>
-    <t>Forget password Simple Path5</t>
-  </si>
-  <si>
-    <t>FieldValues6</t>
-  </si>
-  <si>
-    <t>Forget password Simple Path6</t>
-  </si>
-  <si>
     <t>emailAddressForPasswordReset</t>
   </si>
   <si>
@@ -152,22 +128,13 @@
     <t>dyutida11@dutta.com</t>
   </si>
   <si>
-    <t>dyutidsd20@yopmail.com</t>
-  </si>
-  <si>
-    <t>adhish@yopmail.com</t>
-  </si>
-  <si>
-    <t>banshi@yopmail.com</t>
-  </si>
-  <si>
-    <t>testing@yopmail.com</t>
-  </si>
-  <si>
     <t>newPassword</t>
   </si>
   <si>
     <t>confirmPassword</t>
+  </si>
+  <si>
+    <t>Test@12345</t>
   </si>
 </sst>
 </file>
@@ -537,19 +504,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C4" sqref="B4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,20 +526,8 @@
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -582,86 +537,38 @@
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
